--- a/core/modules/poi/src/test/resources/org/onetwo/common/excel/excel-template.xlsx
+++ b/core/modules/poi/src/test/resources/org/onetwo/common/excel/excel-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydev\workspace\onetwo\labs\test-onetwo\src\test\resources\org\onetwo\common\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydev\java\workspace\bitbucket\onetwo\core\modules\poi\src\test\resources\org\onetwo\common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'按线路统计，2014-10-20 至 2014-11-25'!$A$5:$J$12</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -143,16 +144,8 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>[/row:list]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>${totalLabel}</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[row:list datalist as data, index]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${index}</t>
@@ -160,6 +153,14 @@
   </si>
   <si>
     <t>${#f.format(data.money)}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[list datalist as data, index]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[/list]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -438,6 +439,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -471,33 +490,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -799,7 +828,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -814,47 +843,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="22" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
@@ -879,7 +908,7 @@
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="8"/>
@@ -892,14 +921,14 @@
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
@@ -909,7 +938,7 @@
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="8"/>
@@ -922,7 +951,7 @@
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="1"/>
@@ -940,44 +969,52 @@
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="18" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="21" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:B1"/>
@@ -988,14 +1025,6 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/core/modules/poi/src/test/resources/org/onetwo/common/excel/excel-template.xlsx
+++ b/core/modules/poi/src/test/resources/org/onetwo/common/excel/excel-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydev\java\workspace\bitbucket\onetwo\core\modules\poi\src\test\resources\org\onetwo\common\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydev\workspace\onetwo\labs\test-onetwo\src\test\resources\org\onetwo\common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'按线路统计，2014-10-20 至 2014-11-25'!$A$5:$J$12</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -144,8 +143,16 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>[/row:list]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>${totalLabel}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[row:list datalist as data, index]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${index}</t>
@@ -153,14 +160,6 @@
   </si>
   <si>
     <t>${#f.format(data.money)}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[list datalist as data, index]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[/list]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -439,6 +438,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -451,82 +489,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -828,7 +799,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -843,47 +814,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
@@ -908,7 +879,7 @@
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="8"/>
@@ -921,14 +892,14 @@
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
@@ -938,7 +909,7 @@
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="8"/>
@@ -951,7 +922,7 @@
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="1"/>
@@ -969,52 +940,44 @@
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="24" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="27" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="28"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:B1"/>
@@ -1025,6 +988,14 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
